--- a/MyXLSXFile.xlsx
+++ b/MyXLSXFile.xlsx
@@ -16,12 +16,1824 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>I am a cell!</t>
-  </si>
-  <si>
-    <t>Cell(2,2)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="606">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>AlbumId</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>ThumbnailUrl</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>assumenda voluptatem laboriosam enim consequatur veniam placeat reiciendis error</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/8985dc</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/8985dc</t>
+  </si>
+  <si>
+    <t>quam quos dolor eum ea in</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/7375af</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/7375af</t>
+  </si>
+  <si>
+    <t>illo qui vel laboriosam vel fugit deserunt</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/363789</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/363789</t>
+  </si>
+  <si>
+    <t>commodi sed enim sint in nobis</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/fd8ae7</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/fd8ae7</t>
+  </si>
+  <si>
+    <t>vel hic et autem quo soluta esse quasi</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/973d6d</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/973d6d</t>
+  </si>
+  <si>
+    <t>non sunt voluptatem placeat consequuntur rem incidunt</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/8e973b</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/8e973b</t>
+  </si>
+  <si>
+    <t>doloremque culpa quia</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/cd5a92</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/cd5a92</t>
+  </si>
+  <si>
+    <t>neque eum provident et inventore sed ipsam dignissimos quo</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/29fe9f</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/29fe9f</t>
+  </si>
+  <si>
+    <t>culpa ipsam nobis qui fuga magni et mollitia</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/501fe1</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/501fe1</t>
+  </si>
+  <si>
+    <t>molestiae nam ullam et rerum doloribus</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/1e71a2</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/1e71a2</t>
+  </si>
+  <si>
+    <t>amet maiores ut</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/128151</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/128151</t>
+  </si>
+  <si>
+    <t>magni odio non</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/9cda61</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/9cda61</t>
+  </si>
+  <si>
+    <t>eos nihil sunt accusantium omnis</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/224566</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/224566</t>
+  </si>
+  <si>
+    <t>fuga sint ipsa quis</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/ecef3e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/ecef3e</t>
+  </si>
+  <si>
+    <t>qui tempora vel exercitationem harum iusto voluptas incidunt</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/627495</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/627495</t>
+  </si>
+  <si>
+    <t>accusamus ea aliquid et amet sequi nemo</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/56a8c2</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/56a8c2</t>
+  </si>
+  <si>
+    <t>magni nulla et dolores</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/7644fe</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/7644fe</t>
+  </si>
+  <si>
+    <t>et doloremque excepturi libero earum</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/eb76bc</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/eb76bc</t>
+  </si>
+  <si>
+    <t>perferendis nesciunt eveniet et optio a</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/56acb2</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/56acb2</t>
+  </si>
+  <si>
+    <t>id at cum incidunt nulla dolor vero tenetur</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/21d35</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/21d35</t>
+  </si>
+  <si>
+    <t>unde minus molestias</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/da7ddf</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/da7ddf</t>
+  </si>
+  <si>
+    <t>et soluta est</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/b4412f</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/b4412f</t>
+  </si>
+  <si>
+    <t>et fuga perspiciatis qui quis</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/d0882c</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/d0882c</t>
+  </si>
+  <si>
+    <t>sed voluptatum enim eaque cumque qui sunt</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/149540</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/149540</t>
+  </si>
+  <si>
+    <t>maiores ipsa ut autem</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/50d332</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/50d332</t>
+  </si>
+  <si>
+    <t>ut esse id</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/68e0a8</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/68e0a8</t>
+  </si>
+  <si>
+    <t>laboriosam odit nam necessitatibus et illum dolores reiciendis</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/1fe46f</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/1fe46f</t>
+  </si>
+  <si>
+    <t>nobis sint assumenda consequatur laboriosam laudantium modi perferendis ea</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/2da3b7</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/2da3b7</t>
+  </si>
+  <si>
+    <t>reprehenderit est deserunt velit ipsam</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/771796</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/771796</t>
+  </si>
+  <si>
+    <t>officiis similique autem unde repellendus</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/bc8f1d</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/bc8f1d</t>
+  </si>
+  <si>
+    <t>alias mollitia voluptatum soluta quod</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/5efeca</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/5efeca</t>
+  </si>
+  <si>
+    <t>quos rem nulla ea amet</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/cc178e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/cc178e</t>
+  </si>
+  <si>
+    <t>dolore quo nemo omnis odio et iure explicabo</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/b2fe8</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/b2fe8</t>
+  </si>
+  <si>
+    <t>eligendi quas consequatur aut consequuntur</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/65ac19</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/65ac19</t>
+  </si>
+  <si>
+    <t>ipsum numquam ratione facilis provident animi reprehenderit ut</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/3689cd</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/3689cd</t>
+  </si>
+  <si>
+    <t>eius hic autem ad beatae voluptas</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/6ad437</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/6ad437</t>
+  </si>
+  <si>
+    <t>harum dicta similique quis dolore earum ex qui</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/f9cee5</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/f9cee5</t>
+  </si>
+  <si>
+    <t>voluptatem consequatur totam qui aut iure est vel</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/5e04a4</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/5e04a4</t>
+  </si>
+  <si>
+    <t>facere animi autem quod dolor</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/4e557c</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/4e557c</t>
+  </si>
+  <si>
+    <t>reiciendis et velit laborum recusandae</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/2f9e30</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/2f9e30</t>
+  </si>
+  <si>
+    <t>eum laborum in sunt ea</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/9da52c</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/9da52c</t>
+  </si>
+  <si>
+    <t>modi totam dolor eaque et ipsum est cupiditate</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/a46a91</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/a46a91</t>
+  </si>
+  <si>
+    <t>voluptate voluptates sequi</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/a7c272</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/a7c272</t>
+  </si>
+  <si>
+    <t>harum velit vero totam</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/e924e6</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/e924e6</t>
+  </si>
+  <si>
+    <t>vitae est facere quia itaque adipisci perferendis id maiores</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/35185e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/35185e</t>
+  </si>
+  <si>
+    <t>pariatur nesciunt temporibus ipsam ut maiores labore</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/a29d32</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/a29d32</t>
+  </si>
+  <si>
+    <t>beatae officiis ut aut</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/8f209a</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/8f209a</t>
+  </si>
+  <si>
+    <t>aut culpa magni aut officiis</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/b98f29</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/b98f29</t>
+  </si>
+  <si>
+    <t>eveniet pariatur quia nobis reiciendis laboriosam ea</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/121fa4</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/121fa4</t>
+  </si>
+  <si>
+    <t>aliquid aut at sed repudiandae est autem</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/739fba</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/739fba</t>
+  </si>
+  <si>
+    <t>repudiandae iusto deleniti rerum</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/197d29</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/197d29</t>
+  </si>
+  <si>
+    <t>dolorem cumque quo nihil inventore enim</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/65ad4f</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/65ad4f</t>
+  </si>
+  <si>
+    <t>placeat fugit voluptatum cupiditate nemo aut</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/e959e4</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/e959e4</t>
+  </si>
+  <si>
+    <t>consequatur quaerat sunt et</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/e79b4e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/e79b4e</t>
+  </si>
+  <si>
+    <t>hic nulla consectetur</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/1dff02</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/1dff02</t>
+  </si>
+  <si>
+    <t>eveniet perspiciatis optio est qui ea dolore</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/496b8d</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/496b8d</t>
+  </si>
+  <si>
+    <t>saepe recusandae ut odio enim ipsa quo placeat iusto</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/cffa9b</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/cffa9b</t>
+  </si>
+  <si>
+    <t>veritatis numquam eius</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/eaf2e1</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/eaf2e1</t>
+  </si>
+  <si>
+    <t>aut omnis qui et est molestiae distinctio atque</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/d6dc09</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/d6dc09</t>
+  </si>
+  <si>
+    <t>ratione autem magni eveniet voluptas quia corporis</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/37942b</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/37942b</t>
+  </si>
+  <si>
+    <t>soluta et harum aliquid officiis ab omnis consequatur</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/6efc5f</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/6efc5f</t>
+  </si>
+  <si>
+    <t>repellendus velit id non veniam dolorum quod est</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/f9a540</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/f9a540</t>
+  </si>
+  <si>
+    <t>maxime provident eaque sapiente ipsa ducimus</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/89afb1</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/89afb1</t>
+  </si>
+  <si>
+    <t>ea enim temporibus asperiores placeat consectetur commodi ullam</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/323599</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/323599</t>
+  </si>
+  <si>
+    <t>quidem ut quos non qui debitis exercitationem</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/c5e1ce</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/c5e1ce</t>
+  </si>
+  <si>
+    <t>id reiciendis neque voluptas explicabo quae</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/7ef62f</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/7ef62f</t>
+  </si>
+  <si>
+    <t>odio enim voluptatem quidem aut nihil illum</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/372c93</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/372c93</t>
+  </si>
+  <si>
+    <t>qui sed ex</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/af2618</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/af2618</t>
+  </si>
+  <si>
+    <t>laboriosam nihil cum provident id quo</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/b80430</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/b80430</t>
+  </si>
+  <si>
+    <t>magnam quia sed aspernatur</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/74456b</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/74456b</t>
+  </si>
+  <si>
+    <t>est facere ut nam repellat numquam quia quia eos</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/b0931d</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/b0931d</t>
+  </si>
+  <si>
+    <t>non aut facilis nihil aliquid sequi quae aut soluta</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/10e0b8</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/10e0b8</t>
+  </si>
+  <si>
+    <t>est ad molestiae ut voluptatum omnis sit consequuntur et</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/3587a</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/3587a</t>
+  </si>
+  <si>
+    <t>est quas voluptates dignissimos sint praesentium nisi recusandae</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/3a0b95</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/3a0b95</t>
+  </si>
+  <si>
+    <t>et iure eius enim explicabo</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/aac33b</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/aac33b</t>
+  </si>
+  <si>
+    <t>culpa odio esse rerum omnis laboriosam voluptate repudiandae</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/d32776</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/d32776</t>
+  </si>
+  <si>
+    <t>quasi quae est modi quis quam in impedit</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/2cd88b</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/2cd88b</t>
+  </si>
+  <si>
+    <t>aperiam amet est occaecati quae non ut</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/b9d67e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/b9d67e</t>
+  </si>
+  <si>
+    <t>officia porro iure quia iusto qui ipsa ut modi</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/24f355</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/24f355</t>
+  </si>
+  <si>
+    <t>mollitia ut minima totam distinctio provident quia non</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/336fe7</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/336fe7</t>
+  </si>
+  <si>
+    <t>deleniti enim aliquid sequi</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/f0d2f4</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/f0d2f4</t>
+  </si>
+  <si>
+    <t>mollitia soluta ut rerum eos aliquam consequatur perspiciatis maiores</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/66b7d2</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/66b7d2</t>
+  </si>
+  <si>
+    <t>sed animi et sed</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/808e8c</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/808e8c</t>
+  </si>
+  <si>
+    <t>totam temporibus eaque est eum et perspiciatis ullam</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/79439b</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/79439b</t>
+  </si>
+  <si>
+    <t>error magni fugiat dolorem impedit molestiae illo ullam debitis</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/31a74c</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/31a74c</t>
+  </si>
+  <si>
+    <t>est eos ducimus consequatur est</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/aae0f3</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/aae0f3</t>
+  </si>
+  <si>
+    <t>harum accusamus asperiores</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/74c0c4</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/74c0c4</t>
+  </si>
+  <si>
+    <t>nemo tenetur ipsam</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/3bb51b</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/3bb51b</t>
+  </si>
+  <si>
+    <t>reprehenderit totam dolor itaque</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/c7a96d</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/c7a96d</t>
+  </si>
+  <si>
+    <t>aut porro officiis laborum odit ea laudantium corporis</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/54176f</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/54176f</t>
+  </si>
+  <si>
+    <t>quisquam error consequatur</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/61918f</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/61918f</t>
+  </si>
+  <si>
+    <t>et fugit et eius quod provident</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/3b4a81</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/3b4a81</t>
+  </si>
+  <si>
+    <t>natus nisi omnis corporis facere molestiae rerum in</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/f66b97</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/f66b97</t>
+  </si>
+  <si>
+    <t>et aut ad dolor nam</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/f63b02</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/f63b02</t>
+  </si>
+  <si>
+    <t>et eius nisi in ut reprehenderit labore eum</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/35cedf</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/35cedf</t>
+  </si>
+  <si>
+    <t>perspiciatis est commodi iste nulla et eveniet voluptates eum</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/c3f384</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/c3f384</t>
+  </si>
+  <si>
+    <t>nihil at amet non hic quia qui</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/1ee8a4</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/1ee8a4</t>
+  </si>
+  <si>
+    <t>expedita rerum eaque</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/4d564d</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/4d564d</t>
+  </si>
+  <si>
+    <t>aspernatur possimus consectetur in tempore distinctio a ipsa officiis</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/66a752</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/66a752</t>
+  </si>
+  <si>
+    <t>facere non quis fuga fugit vitae</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/5e3a73</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/5e3a73</t>
+  </si>
+  <si>
+    <t>officia delectus consequatur vero aut veniam explicabo molestias</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/b0f7cc</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/b0f7cc</t>
+  </si>
+  <si>
+    <t>at voluptatem repellat et voluptas eum est ipsum et</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/d032c4</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/d032c4</t>
+  </si>
+  <si>
+    <t>aut ipsam quos ab placeat omnis</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/602b9e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/602b9e</t>
+  </si>
+  <si>
+    <t>provident rerum voluptatem illo asperiores qui maiores</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/ee0a7e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/ee0a7e</t>
+  </si>
+  <si>
+    <t>voluptas dolorem rerum similique quis id unde</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/1b5aec</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/1b5aec</t>
+  </si>
+  <si>
+    <t>est necessitatibus architecto ut laborum</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/61a65</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/61a65</t>
+  </si>
+  <si>
+    <t>et inventore quae ut tempore eius voluptatum</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/9e59da</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/9e59da</t>
+  </si>
+  <si>
+    <t>iusto sint enim nesciunt facilis exercitationem</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/45935c</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/45935c</t>
+  </si>
+  <si>
+    <t>et ea illo et sit voluptas animi blanditiis porro</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/45601a</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/45601a</t>
+  </si>
+  <si>
+    <t>quae accusamus voluptas aperiam est amet</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/40bdc9</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/40bdc9</t>
+  </si>
+  <si>
+    <t>sunt quo laborum commodi porro consequatur nam delectus et</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/40591</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/40591</t>
+  </si>
+  <si>
+    <t>quia quasi enim voluptatem repellat sit sint</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/a19891</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/a19891</t>
+  </si>
+  <si>
+    <t>quia minus sed eveniet accusantium incidunt beatae odio</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/e403d1</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/e403d1</t>
+  </si>
+  <si>
+    <t>vero est optio expedita quis ut molestiae</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/95acce</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/95acce</t>
+  </si>
+  <si>
+    <t>ullam delectus architecto sint error</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/eb7e7f</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/eb7e7f</t>
+  </si>
+  <si>
+    <t>et natus vero quia totam aut et minima</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/313b40</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/313b40</t>
+  </si>
+  <si>
+    <t>rem pariatur facere eaque</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/cde4c1</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/cde4c1</t>
+  </si>
+  <si>
+    <t>qui vel ut odio consequuntur</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/fd5751</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/fd5751</t>
+  </si>
+  <si>
+    <t>et corrupti nihil cumque</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/a0c998</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/a0c998</t>
+  </si>
+  <si>
+    <t>voluptate voluptas molestias vitae illo iusto</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/88b703</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/88b703</t>
+  </si>
+  <si>
+    <t>nobis ut iusto porro debitis vitae</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/d1dd9e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/d1dd9e</t>
+  </si>
+  <si>
+    <t>qui eius qui autem sed</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/51aa97</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/51aa97</t>
+  </si>
+  <si>
+    <t>eaque iste corporis tempora vero distinctio consequuntur nisi nesciunt</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/a393af</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/a393af</t>
+  </si>
+  <si>
+    <t>incidunt sed libero non necessitatibus</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/75999a</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/75999a</t>
+  </si>
+  <si>
+    <t>rerum exercitationem libero dolor</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/1224bd</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/1224bd</t>
+  </si>
+  <si>
+    <t>velit placeat optio corrupti</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/ff2fe8</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/ff2fe8</t>
+  </si>
+  <si>
+    <t>eius unde ipsa incidunt corrupti quia accusamus omnis</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/f3472e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/f3472e</t>
+  </si>
+  <si>
+    <t>sequi maiores aut sunt</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/170b0e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/170b0e</t>
+  </si>
+  <si>
+    <t>beatae et provident et ut vel</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/810b14</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/810b14</t>
+  </si>
+  <si>
+    <t>aut voluptas aut temporibus</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/2e1c14</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/2e1c14</t>
+  </si>
+  <si>
+    <t>magnam dolor sed enim vel optio consequuntur</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/b04f2e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/b04f2e</t>
+  </si>
+  <si>
+    <t>et accusantium enim pariatur eum nihil fugit</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/a01c5b</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/a01c5b</t>
+  </si>
+  <si>
+    <t>non neque eligendi molestiae repudiandae illum voluptatem qui aut</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/392537</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/392537</t>
+  </si>
+  <si>
+    <t>repellat molestiae nihil iste autem blanditiis officiis</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/b1f841</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/b1f841</t>
+  </si>
+  <si>
+    <t>tenetur minus voluptatum et</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/c96cad</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/c96cad</t>
+  </si>
+  <si>
+    <t>ad enim dignissimos voluptatem similique</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/c70a4d</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/c70a4d</t>
+  </si>
+  <si>
+    <t>magni fuga alias non consectetur dolorum tempora</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/258967</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/258967</t>
+  </si>
+  <si>
+    <t>in voluptatem doloremque cum atque architecto deleniti</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/659403</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/659403</t>
+  </si>
+  <si>
+    <t>praesentium fugit quis aut voluptatum commodi dolore corrupti</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/c4084a</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/c4084a</t>
+  </si>
+  <si>
+    <t>ad et natus qui</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/5e12c6</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/5e12c6</t>
+  </si>
+  <si>
+    <t>possimus dolor minima provident ipsam</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/1d2ad4</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/1d2ad4</t>
+  </si>
+  <si>
+    <t>assumenda sed deleniti</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/44ed94</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/44ed94</t>
+  </si>
+  <si>
+    <t>accusamus beatae ad facilis cum similique qui sunt</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/92c952</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/92c952</t>
+  </si>
+  <si>
+    <t>veritatis labore ipsum unde aut quam dolores</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/1279e9</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/1279e9</t>
+  </si>
+  <si>
+    <t>occaecati sed earum ab ut vel quibusdam perferendis nihil</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/877cd8</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/877cd8</t>
+  </si>
+  <si>
+    <t>laudantium quibusdam inventore</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/170690</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/170690</t>
+  </si>
+  <si>
+    <t>totam voluptas iusto deserunt dolores</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/ea51da</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/ea51da</t>
+  </si>
+  <si>
+    <t>labore magnam officiis nemo et</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/e2223e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/e2223e</t>
+  </si>
+  <si>
+    <t>quidem maiores in quia fugit dolore explicabo occaecati</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/e9b68</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/e9b68</t>
+  </si>
+  <si>
+    <t>et quae eligendi vitae maxime in</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/bfe0dc</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/bfe0dc</t>
+  </si>
+  <si>
+    <t>et quisquam aspernatur</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/cc12f5</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/cc12f5</t>
+  </si>
+  <si>
+    <t>molestias et aliquam natus repellendus accusamus dolore</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/2edde0</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/2edde0</t>
+  </si>
+  <si>
+    <t>voluptas necessitatibus ut</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/4dc2b9</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/4dc2b9</t>
+  </si>
+  <si>
+    <t>ipsum consequatur vel omnis mollitia repellat dolores quasi</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/36d137</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/36d137</t>
+  </si>
+  <si>
+    <t>ullam dolor ut ipsa veniam</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/6c746e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/6c746e</t>
+  </si>
+  <si>
+    <t>voluptatibus a autem molestias voluptas architecto culpa</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/ca50ac</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/ca50ac</t>
+  </si>
+  <si>
+    <t>quod non quae</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/de79c7</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/de79c7</t>
+  </si>
+  <si>
+    <t>cupiditate tempore debitis quas quis recusandae facilis esse</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/240f8e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/240f8e</t>
+  </si>
+  <si>
+    <t>dolore esse a in eos sed</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/1fb08b</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/1fb08b</t>
+  </si>
+  <si>
+    <t>esse ad quia ea est dicta soluta perspiciatis</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/a75adc</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/a75adc</t>
+  </si>
+  <si>
+    <t>asperiores nobis voluptate qui</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/474645</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/474645</t>
+  </si>
+  <si>
+    <t>consequatur quos odio harum alias</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/949d2f</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/949d2f</t>
+  </si>
+  <si>
+    <t>commodi eum dolorum reiciendis unde ut</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/b13ff6</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/b13ff6</t>
+  </si>
+  <si>
+    <t>est ab sed repellendus labore sit modi aperiam</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/a06f8a</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/a06f8a</t>
+  </si>
+  <si>
+    <t>et autem dolores aut porro est qui</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/46e3b1</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/46e3b1</t>
+  </si>
+  <si>
+    <t>sit asperiores est quos quis nisi veniam error</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/c984bf</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/c984bf</t>
+  </si>
+  <si>
+    <t>et iste aliquam laboriosam et</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/2b0599</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/2b0599</t>
+  </si>
+  <si>
+    <t>enim asperiores libero ratione voluptatibus alias facilis in voluptatem</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/e55524</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/e55524</t>
+  </si>
+  <si>
+    <t>assumenda sit non debitis dolorem saepe quae deleniti</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/c0798a</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/c0798a</t>
+  </si>
+  <si>
+    <t>aut magni quibusdam cupiditate ea</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/a9ef52</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/a9ef52</t>
+  </si>
+  <si>
+    <t>et qui rerum</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/14ba42</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/14ba42</t>
+  </si>
+  <si>
+    <t>minima aspernatur eius nemo ut</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/661f4c</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/661f4c</t>
+  </si>
+  <si>
+    <t>qui harum quis ipsum optio ex</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/26016b</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/26016b</t>
+  </si>
+  <si>
+    <t>iusto sunt nobis quasi veritatis quas expedita voluptatum deserunt</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/fdf73e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/fdf73e</t>
+  </si>
+  <si>
+    <t>sed commodi libero id nesciunt modi vitae</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/a77d08</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/a77d08</t>
+  </si>
+  <si>
+    <t>deserunt commodi et aut et molestiae debitis et sed</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/d611bd</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/d611bd</t>
+  </si>
+  <si>
+    <t>non deleniti nihil provident eveniet</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/70f7e3</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/70f7e3</t>
+  </si>
+  <si>
+    <t>dolorum ipsam odit</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/7f330f</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/7f330f</t>
+  </si>
+  <si>
+    <t>qui autem adipisci veritatis iure necessitatibus et ab voluptatem</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/5fa928</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/5fa928</t>
+  </si>
+  <si>
+    <t>placeat in reprehenderit</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/f8ee8a</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/f8ee8a</t>
+  </si>
+  <si>
+    <t>vitae delectus sed</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/ff79d0</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/ff79d0</t>
+  </si>
+  <si>
+    <t>sed quia accusantium nemo placeat dolor ut</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/11af10</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/11af10</t>
+  </si>
+  <si>
+    <t>est vel et laboriosam quo aspernatur distinctio molestiae</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/c611a9</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/c611a9</t>
+  </si>
+  <si>
+    <t>nisi odio nihil molestias facere laudantium distinctio facilis et</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/211c94</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/211c94</t>
+  </si>
+  <si>
+    <t>inventore veritatis magnam enim quasi</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/75334a</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/75334a</t>
+  </si>
+  <si>
+    <t>aliquam dolorem ut modi ratione et assumenda impedit</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/b5205d</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/b5205d</t>
+  </si>
+  <si>
+    <t>aperiam aut est amet tenetur et dolorem</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/637984</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/637984</t>
+  </si>
+  <si>
+    <t>natus magnam iure rerum pariatur molestias dolore nisi</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/4f5b8d</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/4f5b8d</t>
+  </si>
+  <si>
+    <t>natus doloribus necessitatibus ipsa</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/9c184f</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/9c184f</t>
+  </si>
+  <si>
+    <t>temporibus aliquam vel et consequuntur minima voluptate sunt</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/727ca8</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/727ca8</t>
+  </si>
+  <si>
+    <t>vel voluptatem esse consequuntur est officia quo aut quisquam</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/f9f067</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/f9f067</t>
+  </si>
+  <si>
+    <t>ut ex quibusdam dolore mollitia</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/aa8f2e</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/aa8f2e</t>
+  </si>
+  <si>
+    <t>architecto aut quod qui ullam vitae expedita delectus</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/e9603b</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/e9603b</t>
+  </si>
+  <si>
+    <t>fugit ad atque excepturi</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/e20f7b</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/e20f7b</t>
+  </si>
+  <si>
+    <t>et sit earum praesentium quas quis sint et</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/41c3dc</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/41c3dc</t>
+  </si>
+  <si>
+    <t>libero rem amet ipsam ullam illo excepturi rerum</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/43803c</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/43803c</t>
+  </si>
+  <si>
+    <t>incidunt alias vel enim</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/e743b</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/e743b</t>
+  </si>
+  <si>
+    <t>velit quasi incidunt molestiae ut ut ex hic cupiditate</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/7dd663</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/7dd663</t>
+  </si>
+  <si>
+    <t>aut quia enim id neque expedita aliquid</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/939eae</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/939eae</t>
+  </si>
+  <si>
+    <t>eos quia minima modi cumque illo odit consequatur vero</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/600/3ee01c</t>
+  </si>
+  <si>
+    <t>https://via.placeholder.com/150/3ee01c</t>
   </si>
 </sst>
 </file>
@@ -388,7 +2200,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -399,20 +2211,3630 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.5"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.5"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s"/>
+    </row>
     <row r="3">
-      <c r="A3" s="1" t="s"/>
-      <c r="B3" s="1" t="s"/>
+      <c r="A3" s="1">
+        <v>70</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <v>71</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <v>121</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <v>195</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1">
         <v>1</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1">
+        <v>196</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1">
+        <v>95</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1">
+        <v>87</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1">
+        <v>123</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1">
+        <v>108</v>
+      </c>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="1" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1">
+        <v>76</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1">
+        <v>118</v>
+      </c>
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="1" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1">
+        <v>89</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="1" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1">
+        <v>115</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1" t="s"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="1" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1">
+        <v>125</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="1" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1">
+        <v>65</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="1" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1">
+        <v>107</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="1" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1">
+        <v>48</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="1" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="1" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1">
+        <v>199</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="1" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="1" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>124</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="1" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1">
+        <v>129</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="1" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1">
+        <v>111</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="1" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1">
+        <v>117</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="1" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1">
+        <v>74</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="1" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1">
+        <v>150</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="1" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="1" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1">
+        <v>15</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="1" t="s"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1">
+        <v>55</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="1" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1">
+        <v>63</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="1" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1">
+        <v>110</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F41" s="1" t="s"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1">
+        <v>153</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="1" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>59</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" s="1" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1">
+        <v>31</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" s="1" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1">
+        <v>23</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F45" s="1" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1">
+        <v>34</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F46" s="1" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1">
+        <v>179</v>
+      </c>
+      <c r="B47" s="1">
+        <v>4</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F47" s="1" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>24</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="1" t="s"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1">
+        <v>194</v>
+      </c>
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" s="1" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="1" t="s"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1">
+        <v>161</v>
+      </c>
+      <c r="B51" s="1">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F51" s="1" t="s"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1">
+        <v>13</v>
+      </c>
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F52" s="1" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1">
+        <v>62</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" s="1" t="s"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1">
+        <v>170</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" s="1" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1">
+        <v>114</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55" s="1" t="s"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1">
+        <v>113</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F56" s="1" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1">
+        <v>134</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" s="1" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1">
+        <v>149</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F58" s="1" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1">
+        <v>105</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F59" s="1" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1">
+        <v>176</v>
+      </c>
+      <c r="B60" s="1">
+        <v>4</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F60" s="1" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1">
+        <v>177</v>
+      </c>
+      <c r="B61" s="1">
+        <v>4</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F61" s="1" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1">
+        <v>53</v>
+      </c>
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F62" s="1" t="s"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1">
+        <v>132</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F63" s="1" t="s"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1">
+        <v>130</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F64" s="1" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1">
+        <v>60</v>
+      </c>
+      <c r="B65" s="1">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="1" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1">
+        <v>109</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" s="1" t="s"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1">
+        <v>126</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67" s="1" t="s"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1">
+        <v>30</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F68" s="1" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1">
+        <v>131</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F69" s="1" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1">
+        <v>178</v>
+      </c>
+      <c r="B70" s="1">
+        <v>4</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F70" s="1" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1">
+        <v>127</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F71" s="1" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1">
+        <v>128</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F72" s="1" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1">
+        <v>182</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F73" s="1" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1">
+        <v>159</v>
+      </c>
+      <c r="B74" s="1">
+        <v>4</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F74" s="1" t="s"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1">
+        <v>40</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F75" s="1" t="s"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="1">
+        <v>116</v>
+      </c>
+      <c r="B76" s="1">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F76" s="1" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="1">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F77" s="1" t="s"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="1">
+        <v>49</v>
+      </c>
+      <c r="B78" s="1">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F78" s="1" t="s"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>148</v>
+      </c>
+      <c r="B79" s="1">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F79" s="1" t="s"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1">
+        <v>1</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F80" s="1" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1">
+        <v>193</v>
+      </c>
+      <c r="B81" s="1">
+        <v>4</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F81" s="1" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="1">
+        <v>184</v>
+      </c>
+      <c r="B82" s="1">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F82" s="1" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="1">
+        <v>12</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F83" s="1" t="s"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="1">
+        <v>181</v>
+      </c>
+      <c r="B84" s="1">
+        <v>4</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F84" s="1" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="1">
+        <v>143</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F85" s="1" t="s"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="1">
+        <v>81</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F86" s="1" t="s"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="1">
+        <v>163</v>
+      </c>
+      <c r="B87" s="1">
+        <v>4</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F87" s="1" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1">
+        <v>166</v>
+      </c>
+      <c r="B88" s="1">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F88" s="1" t="s"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1">
+        <v>171</v>
+      </c>
+      <c r="B89" s="1">
+        <v>4</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F89" s="1" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1">
+        <v>142</v>
+      </c>
+      <c r="B90" s="1">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F90" s="1" t="s"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1">
+        <v>8</v>
+      </c>
+      <c r="B91" s="1">
+        <v>1</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F91" s="1" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1">
+        <v>119</v>
+      </c>
+      <c r="B92" s="1">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F92" s="1" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1">
+        <v>167</v>
+      </c>
+      <c r="B93" s="1">
+        <v>4</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F93" s="1" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F94" s="1" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1">
+        <v>187</v>
+      </c>
+      <c r="B95" s="1">
+        <v>4</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F95" s="1" t="s"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1">
+        <v>103</v>
+      </c>
+      <c r="B96" s="1">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F96" s="1" t="s"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1">
+        <v>200</v>
+      </c>
+      <c r="B97" s="1">
+        <v>4</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F97" s="1" t="s"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1">
+        <v>11</v>
+      </c>
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F98" s="1" t="s"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1">
+        <v>36</v>
+      </c>
+      <c r="B99" s="1">
+        <v>1</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F99" s="1" t="s"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1">
+        <v>144</v>
+      </c>
+      <c r="B100" s="1">
+        <v>3</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F100" s="1" t="s"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1">
+        <v>25</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F101" s="1" t="s"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1">
+        <v>7</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F102" s="1" t="s"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1">
+        <v>185</v>
+      </c>
+      <c r="B103" s="1">
+        <v>4</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F103" s="1" t="s"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1">
+        <v>29</v>
+      </c>
+      <c r="B104" s="1">
+        <v>1</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F104" s="1" t="s"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1">
+        <v>66</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F105" s="1" t="s"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1">
+        <v>165</v>
+      </c>
+      <c r="B106" s="1">
+        <v>4</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F106" s="1" t="s"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1">
+        <v>14</v>
+      </c>
+      <c r="B107" s="1">
+        <v>1</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F107" s="1" t="s"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1">
+        <v>50</v>
+      </c>
+      <c r="B108" s="1">
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F108" s="1" t="s"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1">
+        <v>72</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F109" s="1" t="s"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1">
+        <v>22</v>
+      </c>
+      <c r="B110" s="1">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F110" s="1" t="s"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1">
+        <v>188</v>
+      </c>
+      <c r="B111" s="1">
+        <v>4</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F111" s="1" t="s"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1">
+        <v>91</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F112" s="1" t="s"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1">
+        <v>83</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F113" s="1" t="s"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1">
+        <v>61</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F114" s="1" t="s"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>57</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F115" s="1" t="s"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>85</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F116" s="1" t="s"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>104</v>
+      </c>
+      <c r="B117" s="1">
+        <v>3</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F117" s="1" t="s"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>58</v>
+      </c>
+      <c r="B118" s="1">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F118" s="1" t="s"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>86</v>
+      </c>
+      <c r="B119" s="1">
+        <v>2</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F119" s="1" t="s"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>80</v>
+      </c>
+      <c r="B120" s="1">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F120" s="1" t="s"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>82</v>
+      </c>
+      <c r="B121" s="1">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F121" s="1" t="s"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>197</v>
+      </c>
+      <c r="B122" s="1">
+        <v>4</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F122" s="1" t="s"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1">
+        <v>9</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F123" s="1" t="s"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1">
+        <v>102</v>
+      </c>
+      <c r="B124" s="1">
+        <v>3</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F124" s="1" t="s"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1">
+        <v>186</v>
+      </c>
+      <c r="B125" s="1">
+        <v>4</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="F125" s="1" t="s"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1">
+        <v>73</v>
+      </c>
+      <c r="B126" s="1">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F126" s="1" t="s"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1">
+        <v>139</v>
+      </c>
+      <c r="B127" s="1">
+        <v>3</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F127" s="1" t="s"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1">
+        <v>145</v>
+      </c>
+      <c r="B128" s="1">
+        <v>3</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F128" s="1" t="s"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1">
+        <v>160</v>
+      </c>
+      <c r="B129" s="1">
+        <v>4</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F129" s="1" t="s"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1">
+        <v>10</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F130" s="1" t="s"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1">
+        <v>136</v>
+      </c>
+      <c r="B131" s="1">
+        <v>3</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F131" s="1" t="s"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1">
+        <v>99</v>
+      </c>
+      <c r="B132" s="1">
+        <v>2</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="F132" s="1" t="s"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1">
+        <v>152</v>
+      </c>
+      <c r="B133" s="1">
+        <v>4</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F133" s="1" t="s"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1">
+        <v>28</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F134" s="1" t="s"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1">
+        <v>106</v>
+      </c>
+      <c r="B135" s="1">
+        <v>3</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F135" s="1" t="s"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1">
+        <v>35</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F136" s="1" t="s"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1">
+        <v>32</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F137" s="1" t="s"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1">
+        <v>191</v>
+      </c>
+      <c r="B138" s="1">
+        <v>4</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F138" s="1" t="s"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1">
+        <v>41</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F139" s="1" t="s"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1">
+        <v>45</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="F140" s="1" t="s"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1">
+        <v>21</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F141" s="1" t="s"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1">
+        <v>151</v>
+      </c>
+      <c r="B142" s="1">
+        <v>4</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F142" s="1" t="s"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1">
+        <v>174</v>
+      </c>
+      <c r="B143" s="1">
+        <v>4</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F143" s="1" t="s"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1">
+        <v>1</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F144" s="1" t="s"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1">
+        <v>67</v>
+      </c>
+      <c r="B145" s="1">
+        <v>2</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F145" s="1" t="s"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1">
+        <v>155</v>
+      </c>
+      <c r="B146" s="1">
+        <v>4</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F146" s="1" t="s"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1">
+        <v>112</v>
+      </c>
+      <c r="B147" s="1">
+        <v>3</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F147" s="1" t="s"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1">
+        <v>37</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F148" s="1" t="s"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1">
+        <v>97</v>
+      </c>
+      <c r="B149" s="1">
+        <v>2</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F149" s="1" t="s"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1">
+        <v>46</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F150" s="1" t="s"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1">
+        <v>90</v>
+      </c>
+      <c r="B151" s="1">
+        <v>2</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F151" s="1" t="s"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1">
+        <v>94</v>
+      </c>
+      <c r="B152" s="1">
+        <v>2</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F152" s="1" t="s"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1">
+        <v>93</v>
+      </c>
+      <c r="B153" s="1">
+        <v>2</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F153" s="1" t="s"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1">
+        <v>183</v>
+      </c>
+      <c r="B154" s="1">
+        <v>4</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F154" s="1" t="s"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1">
+        <v>77</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="F155" s="1" t="s"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1">
+        <v>146</v>
+      </c>
+      <c r="B156" s="1">
+        <v>3</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="F156" s="1" t="s"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1">
+        <v>42</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F157" s="1" t="s"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1">
+        <v>92</v>
+      </c>
+      <c r="B158" s="1">
+        <v>2</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F158" s="1" t="s"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1">
+        <v>173</v>
+      </c>
+      <c r="B159" s="1">
+        <v>4</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F159" s="1" t="s"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1">
+        <v>96</v>
+      </c>
+      <c r="B160" s="1">
+        <v>2</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F160" s="1" t="s"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1">
+        <v>189</v>
+      </c>
+      <c r="B161" s="1">
+        <v>4</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="F161" s="1" t="s"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1">
+        <v>26</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F162" s="1" t="s"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1">
+        <v>122</v>
+      </c>
+      <c r="B163" s="1">
+        <v>3</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="F163" s="1" t="s"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1">
+        <v>141</v>
+      </c>
+      <c r="B164" s="1">
+        <v>3</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F164" s="1" t="s"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1">
+        <v>175</v>
+      </c>
+      <c r="B165" s="1">
+        <v>4</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F165" s="1" t="s"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1">
+        <v>69</v>
+      </c>
+      <c r="B166" s="1">
+        <v>2</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F166" s="1" t="s"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1">
+        <v>27</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F167" s="1" t="s"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1">
+        <v>162</v>
+      </c>
+      <c r="B168" s="1">
+        <v>4</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F168" s="1" t="s"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1">
+        <v>169</v>
+      </c>
+      <c r="B169" s="1">
+        <v>4</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="F169" s="1" t="s"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1">
+        <v>140</v>
+      </c>
+      <c r="B170" s="1">
+        <v>3</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F170" s="1" t="s"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1">
+        <v>75</v>
+      </c>
+      <c r="B171" s="1">
+        <v>2</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="F171" s="1" t="s"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1">
+        <v>100</v>
+      </c>
+      <c r="B172" s="1">
+        <v>2</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F172" s="1" t="s"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1">
+        <v>147</v>
+      </c>
+      <c r="B173" s="1">
+        <v>3</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F173" s="1" t="s"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1">
+        <v>135</v>
+      </c>
+      <c r="B174" s="1">
+        <v>3</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="F174" s="1" t="s"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1">
+        <v>16</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F175" s="1" t="s"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1">
+        <v>98</v>
+      </c>
+      <c r="B176" s="1">
+        <v>2</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F176" s="1" t="s"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1">
+        <v>172</v>
+      </c>
+      <c r="B177" s="1">
+        <v>4</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F177" s="1" t="s"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1">
+        <v>192</v>
+      </c>
+      <c r="B178" s="1">
+        <v>4</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F178" s="1" t="s"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1">
+        <v>154</v>
+      </c>
+      <c r="B179" s="1">
+        <v>4</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="F179" s="1" t="s"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1">
+        <v>158</v>
+      </c>
+      <c r="B180" s="1">
+        <v>4</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F180" s="1" t="s"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1">
+        <v>133</v>
+      </c>
+      <c r="B181" s="1">
+        <v>3</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F181" s="1" t="s"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1">
+        <v>138</v>
+      </c>
+      <c r="B182" s="1">
+        <v>3</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="F182" s="1" t="s"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1">
+        <v>156</v>
+      </c>
+      <c r="B183" s="1">
+        <v>4</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F183" s="1" t="s"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1">
+        <v>79</v>
+      </c>
+      <c r="B184" s="1">
+        <v>2</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F184" s="1" t="s"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1">
+        <v>157</v>
+      </c>
+      <c r="B185" s="1">
+        <v>4</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F185" s="1" t="s"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1">
+        <v>88</v>
+      </c>
+      <c r="B186" s="1">
+        <v>2</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F186" s="1" t="s"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1">
+        <v>84</v>
+      </c>
+      <c r="B187" s="1">
+        <v>2</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="F187" s="1" t="s"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1">
+        <v>78</v>
+      </c>
+      <c r="B188" s="1">
+        <v>2</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F188" s="1" t="s"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1">
+        <v>38</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F189" s="1" t="s"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1">
+        <v>17</v>
+      </c>
+      <c r="B190" s="1">
+        <v>1</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F190" s="1" t="s"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1">
+        <v>180</v>
+      </c>
+      <c r="B191" s="1">
+        <v>4</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F191" s="1" t="s"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1">
+        <v>56</v>
+      </c>
+      <c r="B192" s="1">
+        <v>2</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F192" s="1" t="s"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1">
+        <v>54</v>
+      </c>
+      <c r="B193" s="1">
+        <v>2</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F193" s="1" t="s"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1">
+        <v>68</v>
+      </c>
+      <c r="B194" s="1">
+        <v>2</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F194" s="1" t="s"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1">
+        <v>168</v>
+      </c>
+      <c r="B195" s="1">
+        <v>4</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F195" s="1" t="s"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1">
+        <v>137</v>
+      </c>
+      <c r="B196" s="1">
+        <v>3</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F196" s="1" t="s"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1">
+        <v>198</v>
+      </c>
+      <c r="B197" s="1">
+        <v>4</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F197" s="1" t="s"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1">
+        <v>101</v>
+      </c>
+      <c r="B198" s="1">
+        <v>3</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="F198" s="1" t="s"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1">
+        <v>190</v>
+      </c>
+      <c r="B199" s="1">
+        <v>4</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F199" s="1" t="s"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1">
+        <v>164</v>
+      </c>
+      <c r="B200" s="1">
+        <v>4</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="F200" s="1" t="s"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1">
+        <v>120</v>
+      </c>
+      <c r="B201" s="1">
+        <v>3</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F201" s="1" t="s"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
